--- a/files/Users_Sessions_ID.xlsx
+++ b/files/Users_Sessions_ID.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1139,66 +1139,6 @@
         <v>43707.41319444445</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>csegeview</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>43707.43333333333</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>csegeview</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>43707.43819444445</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>csegeview</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>43707.44097222222</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>csegeview</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>43707.44791666666</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>csegeview</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>43707.58055555556</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>csegeview</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>43707.59583333333</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
